--- a/biology/Virologie/Virus_ourlien/Virus_ourlien.xlsx
+++ b/biology/Virologie/Virus_ourlien/Virus_ourlien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le virus ourlien, Myxovirus parotidis, est responsable des oreillons, maladie virale qui atteint l'enfant mais également l'adulte.
 C'est un virus de type Paramyxoviridae à ARN, recouvert d'une membrane sphérique.
-Son génome fait environ 15 000 bases. Il contient sept gènes codant huit protéines dont six structurales[2].
-Les virions, appelés particules MuV, sont de forme pléomorphe et leur taille varie de 100 à 600 nanomètres de diamètre. Le virus interagit d'abord avec une cellule hôte en se liant à sa surface via le récepteur de la protéine HN, l'acide sialique, qui se lie aux récepteurs de l'acide sialique à la surface des cellules hôtes[2].
-Le virus ourlien a été identifié pour la première fois comme la cause des oreillons en 1934 par Claude D. Johnson and Ernest William Goodpasture, et a été isolé pour la première fois en 1945. En 1948, des vaccins protégeant contre l'infection par le MuV ont été développés. MuV a été reconnu pour la première fois en tant qu'espèce en 1971[3].
-Douze types de virus ont été décrits, désignés par les lettres A à L, avec leur propre répartition mondiale[4]. Ces différentes souches permettent des réinfestations, la contamination (ou la vaccination) par l'une des souches n'étant pas immunisante pour l'ensemble de ces dernières[5].
+Son génome fait environ 15 000 bases. Il contient sept gènes codant huit protéines dont six structurales.
+Les virions, appelés particules MuV, sont de forme pléomorphe et leur taille varie de 100 à 600 nanomètres de diamètre. Le virus interagit d'abord avec une cellule hôte en se liant à sa surface via le récepteur de la protéine HN, l'acide sialique, qui se lie aux récepteurs de l'acide sialique à la surface des cellules hôtes.
+Le virus ourlien a été identifié pour la première fois comme la cause des oreillons en 1934 par Claude D. Johnson and Ernest William Goodpasture, et a été isolé pour la première fois en 1945. En 1948, des vaccins protégeant contre l'infection par le MuV ont été développés. MuV a été reconnu pour la première fois en tant qu'espèce en 1971.
+Douze types de virus ont été décrits, désignés par les lettres A à L, avec leur propre répartition mondiale. Ces différentes souches permettent des réinfestations, la contamination (ou la vaccination) par l'une des souches n'étant pas immunisante pour l'ensemble de ces dernières.
 </t>
         </is>
       </c>
